--- a/交易分析/2022年第三季度/技术面2022-11-02.xlsx
+++ b/交易分析/2022年第三季度/技术面2022-11-02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26000" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26000" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$B$1:$B$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">三季度!$A$3:$AO$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1950,11 +1951,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1977,16 +1978,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2005,32 +2006,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2042,9 +2022,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2067,16 +2054,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2091,7 +2077,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2106,22 +2099,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2172,7 +2173,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2184,79 +2317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,85 +2341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,21 +2432,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2487,6 +2473,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2512,152 +2513,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2674,10 +2675,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2687,13 +2688,13 @@
     <xf numFmtId="10" fontId="2" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2712,6 +2713,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2769,22 +2776,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3128,15 +3120,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AO211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -3219,7 +3211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:41">
+    <row r="2" spans="1:41">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3286,7 +3278,7 @@
       <c r="AN2" s="17"/>
       <c r="AO2" s="18"/>
     </row>
-    <row r="3" ht="41" hidden="1" spans="1:41">
+    <row r="3" ht="41" spans="1:41">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3367,7 +3359,7 @@
       <c r="AN3" s="17"/>
       <c r="AO3" s="18"/>
     </row>
-    <row r="4" hidden="1" spans="1:41">
+    <row r="4" spans="1:41">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -3424,7 +3416,7 @@
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
     </row>
-    <row r="5" hidden="1" spans="1:41">
+    <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -3481,7 +3473,7 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
     </row>
-    <row r="6" hidden="1" spans="1:41">
+    <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -3538,7 +3530,7 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
     </row>
-    <row r="7" hidden="1" spans="1:41">
+    <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3596,10 +3588,10 @@
       <c r="AO7" s="8"/>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3652,11 +3644,11 @@
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
     </row>
-    <row r="9" hidden="1" spans="1:41">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:41">
+      <c r="A9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3710,10 +3702,10 @@
       <c r="AO9" s="8"/>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3767,10 +3759,10 @@
       <c r="AO10" s="8"/>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3823,11 +3815,11 @@
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
     </row>
-    <row r="12" hidden="1" spans="1:41">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:41">
+      <c r="A12" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3880,11 +3872,11 @@
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
     </row>
-    <row r="13" hidden="1" spans="1:41">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:41">
+      <c r="A13" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3937,11 +3929,11 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
     </row>
-    <row r="14" hidden="1" spans="1:41">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:41">
+      <c r="A14" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3994,11 +3986,11 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
     </row>
-    <row r="15" hidden="1" spans="1:41">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:41">
+      <c r="A15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4051,11 +4043,11 @@
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
     </row>
-    <row r="16" hidden="1" spans="1:41">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:41">
+      <c r="A16" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4108,11 +4100,11 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
     </row>
-    <row r="17" hidden="1" spans="1:41">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:41">
+      <c r="A17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4165,11 +4157,11 @@
       <c r="AN17" s="8"/>
       <c r="AO17" s="8"/>
     </row>
-    <row r="18" hidden="1" spans="1:41">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:41">
+      <c r="A18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4222,11 +4214,11 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
     </row>
-    <row r="19" hidden="1" spans="1:41">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:41">
+      <c r="A19" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="22" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4280,10 +4272,10 @@
       <c r="AO19" s="8"/>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -4336,11 +4328,11 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
     </row>
-    <row r="21" hidden="1" spans="1:41">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:41">
+      <c r="A21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -4393,11 +4385,11 @@
       <c r="AN21" s="8"/>
       <c r="AO21" s="8"/>
     </row>
-    <row r="22" hidden="1" spans="1:41">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:41">
+      <c r="A22" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -4450,11 +4442,11 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
     </row>
-    <row r="23" hidden="1" spans="1:41">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:41">
+      <c r="A23" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4507,11 +4499,11 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
     </row>
-    <row r="24" hidden="1" spans="1:41">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:41">
+      <c r="A24" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -4564,11 +4556,11 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
     </row>
-    <row r="25" hidden="1" spans="1:41">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:41">
+      <c r="A25" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4621,11 +4613,11 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
     </row>
-    <row r="26" hidden="1" spans="1:41">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:41">
+      <c r="A26" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="22" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -4679,10 +4671,10 @@
       <c r="AO26" s="8"/>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4735,11 +4727,11 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
     </row>
-    <row r="28" hidden="1" spans="1:41">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:41">
+      <c r="A28" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="22" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -4792,11 +4784,11 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
     </row>
-    <row r="29" hidden="1" spans="1:41">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:41">
+      <c r="A29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4849,11 +4841,11 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
     </row>
-    <row r="30" hidden="1" spans="1:41">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:41">
+      <c r="A30" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -4906,11 +4898,11 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
     </row>
-    <row r="31" hidden="1" spans="1:41">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:41">
+      <c r="A31" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -4963,11 +4955,11 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
     </row>
-    <row r="32" hidden="1" spans="1:41">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:41">
+      <c r="A32" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="22" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -5020,11 +5012,11 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
     </row>
-    <row r="33" hidden="1" spans="1:41">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:41">
+      <c r="A33" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -5077,11 +5069,11 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
     </row>
-    <row r="34" hidden="1" spans="1:41">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:41">
+      <c r="A34" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="22" t="s">
         <v>124</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -5134,11 +5126,11 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
     </row>
-    <row r="35" hidden="1" spans="1:41">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:41">
+      <c r="A35" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -5191,11 +5183,11 @@
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
     </row>
-    <row r="36" hidden="1" spans="1:41">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:41">
+      <c r="A36" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="22" t="s">
         <v>129</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -5248,11 +5240,11 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
     </row>
-    <row r="37" hidden="1" spans="1:41">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:41">
+      <c r="A37" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="22" t="s">
         <v>131</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -5305,11 +5297,11 @@
       <c r="AN37" s="8"/>
       <c r="AO37" s="8"/>
     </row>
-    <row r="38" hidden="1" spans="1:41">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:41">
+      <c r="A38" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="22" t="s">
         <v>134</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -5362,11 +5354,11 @@
       <c r="AN38" s="8"/>
       <c r="AO38" s="8"/>
     </row>
-    <row r="39" hidden="1" spans="1:41">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:41">
+      <c r="A39" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="22" t="s">
         <v>137</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -5419,11 +5411,11 @@
       <c r="AN39" s="8"/>
       <c r="AO39" s="8"/>
     </row>
-    <row r="40" hidden="1" spans="1:41">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:41">
+      <c r="A40" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>139</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -5476,11 +5468,11 @@
       <c r="AN40" s="8"/>
       <c r="AO40" s="8"/>
     </row>
-    <row r="41" hidden="1" spans="1:41">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:41">
+      <c r="A41" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="22" t="s">
         <v>142</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -5533,11 +5525,11 @@
       <c r="AN41" s="8"/>
       <c r="AO41" s="8"/>
     </row>
-    <row r="42" hidden="1" spans="1:41">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:41">
+      <c r="A42" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -5590,11 +5582,11 @@
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
     </row>
-    <row r="43" hidden="1" spans="1:41">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:41">
+      <c r="A43" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -5647,11 +5639,11 @@
       <c r="AN43" s="8"/>
       <c r="AO43" s="8"/>
     </row>
-    <row r="44" hidden="1" spans="1:41">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:41">
+      <c r="A44" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="22" t="s">
         <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -5704,11 +5696,11 @@
       <c r="AN44" s="8"/>
       <c r="AO44" s="8"/>
     </row>
-    <row r="45" hidden="1" spans="1:41">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:41">
+      <c r="A45" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -5761,11 +5753,11 @@
       <c r="AN45" s="8"/>
       <c r="AO45" s="8"/>
     </row>
-    <row r="46" hidden="1" spans="1:41">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:41">
+      <c r="A46" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="22" t="s">
         <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -5818,11 +5810,11 @@
       <c r="AN46" s="8"/>
       <c r="AO46" s="8"/>
     </row>
-    <row r="47" hidden="1" spans="1:41">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:41">
+      <c r="A47" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -5875,11 +5867,11 @@
       <c r="AN47" s="8"/>
       <c r="AO47" s="8"/>
     </row>
-    <row r="48" hidden="1" spans="1:41">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:41">
+      <c r="A48" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="22" t="s">
         <v>159</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -5932,11 +5924,11 @@
       <c r="AN48" s="8"/>
       <c r="AO48" s="8"/>
     </row>
-    <row r="49" hidden="1" spans="1:41">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:41">
+      <c r="A49" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -5989,11 +5981,11 @@
       <c r="AN49" s="8"/>
       <c r="AO49" s="8"/>
     </row>
-    <row r="50" hidden="1" spans="1:41">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:41">
+      <c r="A50" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -6046,11 +6038,11 @@
       <c r="AN50" s="8"/>
       <c r="AO50" s="8"/>
     </row>
-    <row r="51" hidden="1" spans="1:41">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:41">
+      <c r="A51" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="22" t="s">
         <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -6103,11 +6095,11 @@
       <c r="AN51" s="8"/>
       <c r="AO51" s="8"/>
     </row>
-    <row r="52" hidden="1" spans="1:41">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:41">
+      <c r="A52" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -6160,11 +6152,11 @@
       <c r="AN52" s="8"/>
       <c r="AO52" s="8"/>
     </row>
-    <row r="53" hidden="1" spans="1:41">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:41">
+      <c r="A53" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="22" t="s">
         <v>172</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -6217,11 +6209,11 @@
       <c r="AN53" s="8"/>
       <c r="AO53" s="8"/>
     </row>
-    <row r="54" hidden="1" spans="1:41">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:41">
+      <c r="A54" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="22" t="s">
         <v>175</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -6274,11 +6266,11 @@
       <c r="AN54" s="8"/>
       <c r="AO54" s="8"/>
     </row>
-    <row r="55" hidden="1" spans="1:41">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:41">
+      <c r="A55" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="22" t="s">
         <v>178</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -6332,10 +6324,10 @@
       <c r="AO55" s="8"/>
     </row>
     <row r="56" spans="1:41">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="21" t="s">
         <v>181</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -6388,11 +6380,11 @@
       <c r="AN56" s="8"/>
       <c r="AO56" s="8"/>
     </row>
-    <row r="57" hidden="1" spans="1:41">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:41">
+      <c r="A57" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="22" t="s">
         <v>183</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -6446,10 +6438,10 @@
       <c r="AO57" s="8"/>
     </row>
     <row r="58" spans="1:41">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="21" t="s">
         <v>186</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -6502,11 +6494,11 @@
       <c r="AN58" s="8"/>
       <c r="AO58" s="8"/>
     </row>
-    <row r="59" hidden="1" spans="1:41">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:41">
+      <c r="A59" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="22" t="s">
         <v>189</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -6559,11 +6551,11 @@
       <c r="AN59" s="8"/>
       <c r="AO59" s="8"/>
     </row>
-    <row r="60" hidden="1" spans="1:41">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:41">
+      <c r="A60" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="22" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -6616,11 +6608,11 @@
       <c r="AN60" s="8"/>
       <c r="AO60" s="8"/>
     </row>
-    <row r="61" hidden="1" spans="1:41">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:41">
+      <c r="A61" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="22" t="s">
         <v>194</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -6673,11 +6665,11 @@
       <c r="AN61" s="8"/>
       <c r="AO61" s="8"/>
     </row>
-    <row r="62" hidden="1" spans="1:41">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:41">
+      <c r="A62" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="22" t="s">
         <v>197</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -6730,11 +6722,11 @@
       <c r="AN62" s="8"/>
       <c r="AO62" s="8"/>
     </row>
-    <row r="63" hidden="1" spans="1:41">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:41">
+      <c r="A63" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="22" t="s">
         <v>199</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -6787,11 +6779,11 @@
       <c r="AN63" s="8"/>
       <c r="AO63" s="8"/>
     </row>
-    <row r="64" hidden="1" spans="1:41">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:41">
+      <c r="A64" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="22" t="s">
         <v>202</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -6844,11 +6836,11 @@
       <c r="AN64" s="8"/>
       <c r="AO64" s="8"/>
     </row>
-    <row r="65" hidden="1" spans="1:41">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:41">
+      <c r="A65" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="22" t="s">
         <v>205</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -6901,11 +6893,11 @@
       <c r="AN65" s="8"/>
       <c r="AO65" s="8"/>
     </row>
-    <row r="66" hidden="1" spans="1:41">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:41">
+      <c r="A66" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="22" t="s">
         <v>208</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -6958,11 +6950,11 @@
       <c r="AN66" s="8"/>
       <c r="AO66" s="8"/>
     </row>
-    <row r="67" hidden="1" spans="1:41">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:41">
+      <c r="A67" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="22" t="s">
         <v>211</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -7015,11 +7007,11 @@
       <c r="AN67" s="8"/>
       <c r="AO67" s="8"/>
     </row>
-    <row r="68" hidden="1" spans="1:41">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:41">
+      <c r="A68" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="22" t="s">
         <v>214</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -7072,11 +7064,11 @@
       <c r="AN68" s="8"/>
       <c r="AO68" s="8"/>
     </row>
-    <row r="69" hidden="1" spans="1:41">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:41">
+      <c r="A69" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="22" t="s">
         <v>216</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -7129,11 +7121,11 @@
       <c r="AN69" s="8"/>
       <c r="AO69" s="8"/>
     </row>
-    <row r="70" hidden="1" spans="1:41">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:41">
+      <c r="A70" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="22" t="s">
         <v>218</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -7186,11 +7178,11 @@
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
     </row>
-    <row r="71" hidden="1" spans="1:41">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:41">
+      <c r="A71" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="22" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -7243,11 +7235,11 @@
       <c r="AN71" s="8"/>
       <c r="AO71" s="8"/>
     </row>
-    <row r="72" hidden="1" spans="1:41">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:41">
+      <c r="A72" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="22" t="s">
         <v>224</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -7300,11 +7292,11 @@
       <c r="AN72" s="8"/>
       <c r="AO72" s="8"/>
     </row>
-    <row r="73" hidden="1" spans="1:41">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:41">
+      <c r="A73" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="22" t="s">
         <v>226</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -7357,11 +7349,11 @@
       <c r="AN73" s="8"/>
       <c r="AO73" s="8"/>
     </row>
-    <row r="74" hidden="1" spans="1:41">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:41">
+      <c r="A74" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="22" t="s">
         <v>229</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -7414,11 +7406,11 @@
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
     </row>
-    <row r="75" hidden="1" spans="1:41">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:41">
+      <c r="A75" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="22" t="s">
         <v>232</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -7471,11 +7463,11 @@
       <c r="AN75" s="8"/>
       <c r="AO75" s="8"/>
     </row>
-    <row r="76" hidden="1" spans="1:41">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:41">
+      <c r="A76" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="22" t="s">
         <v>234</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -7528,11 +7520,11 @@
       <c r="AN76" s="8"/>
       <c r="AO76" s="8"/>
     </row>
-    <row r="77" hidden="1" spans="1:41">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:41">
+      <c r="A77" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="22" t="s">
         <v>237</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -7585,11 +7577,11 @@
       <c r="AN77" s="8"/>
       <c r="AO77" s="8"/>
     </row>
-    <row r="78" hidden="1" spans="1:41">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:41">
+      <c r="A78" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="22" t="s">
         <v>240</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -7642,11 +7634,11 @@
       <c r="AN78" s="8"/>
       <c r="AO78" s="8"/>
     </row>
-    <row r="79" hidden="1" spans="1:41">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:41">
+      <c r="A79" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="22" t="s">
         <v>242</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -7699,11 +7691,11 @@
       <c r="AN79" s="8"/>
       <c r="AO79" s="8"/>
     </row>
-    <row r="80" hidden="1" spans="1:41">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:41">
+      <c r="A80" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="22" t="s">
         <v>245</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -7756,11 +7748,11 @@
       <c r="AN80" s="8"/>
       <c r="AO80" s="8"/>
     </row>
-    <row r="81" hidden="1" spans="1:41">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:41">
+      <c r="A81" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="22" t="s">
         <v>247</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -7813,11 +7805,11 @@
       <c r="AN81" s="8"/>
       <c r="AO81" s="8"/>
     </row>
-    <row r="82" hidden="1" spans="1:41">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:41">
+      <c r="A82" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="22" t="s">
         <v>249</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -7870,11 +7862,11 @@
       <c r="AN82" s="8"/>
       <c r="AO82" s="8"/>
     </row>
-    <row r="83" hidden="1" spans="1:41">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:41">
+      <c r="A83" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="22" t="s">
         <v>252</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -7927,11 +7919,11 @@
       <c r="AN83" s="8"/>
       <c r="AO83" s="8"/>
     </row>
-    <row r="84" hidden="1" spans="1:41">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:41">
+      <c r="A84" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="22" t="s">
         <v>255</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -7984,11 +7976,11 @@
       <c r="AN84" s="8"/>
       <c r="AO84" s="8"/>
     </row>
-    <row r="85" hidden="1" spans="1:41">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:41">
+      <c r="A85" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="22" t="s">
         <v>258</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -8041,11 +8033,11 @@
       <c r="AN85" s="8"/>
       <c r="AO85" s="8"/>
     </row>
-    <row r="86" hidden="1" spans="1:41">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:41">
+      <c r="A86" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="22" t="s">
         <v>261</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -8099,10 +8091,10 @@
       <c r="AO86" s="8"/>
     </row>
     <row r="87" spans="1:41">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="21" t="s">
         <v>264</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -8156,10 +8148,10 @@
       <c r="AO87" s="8"/>
     </row>
     <row r="88" spans="1:41">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="21" t="s">
         <v>266</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -8212,11 +8204,11 @@
       <c r="AN88" s="8"/>
       <c r="AO88" s="8"/>
     </row>
-    <row r="89" hidden="1" spans="1:41">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="1:41">
+      <c r="A89" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="22" t="s">
         <v>269</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -8269,11 +8261,11 @@
       <c r="AN89" s="8"/>
       <c r="AO89" s="8"/>
     </row>
-    <row r="90" hidden="1" spans="1:41">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:41">
+      <c r="A90" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="22" t="s">
         <v>271</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -8326,11 +8318,11 @@
       <c r="AN90" s="8"/>
       <c r="AO90" s="8"/>
     </row>
-    <row r="91" hidden="1" spans="1:41">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:41">
+      <c r="A91" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="22" t="s">
         <v>274</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -8383,11 +8375,11 @@
       <c r="AN91" s="8"/>
       <c r="AO91" s="8"/>
     </row>
-    <row r="92" hidden="1" spans="1:41">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:41">
+      <c r="A92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -8440,11 +8432,11 @@
       <c r="AN92" s="8"/>
       <c r="AO92" s="8"/>
     </row>
-    <row r="93" hidden="1" spans="1:41">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:41">
+      <c r="A93" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="22" t="s">
         <v>279</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -8497,11 +8489,11 @@
       <c r="AN93" s="8"/>
       <c r="AO93" s="8"/>
     </row>
-    <row r="94" hidden="1" spans="1:41">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:41">
+      <c r="A94" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="22" t="s">
         <v>281</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -8554,11 +8546,11 @@
       <c r="AN94" s="8"/>
       <c r="AO94" s="8"/>
     </row>
-    <row r="95" hidden="1" spans="1:41">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:41">
+      <c r="A95" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="22" t="s">
         <v>284</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -8611,11 +8603,11 @@
       <c r="AN95" s="8"/>
       <c r="AO95" s="8"/>
     </row>
-    <row r="96" hidden="1" spans="1:41">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:41">
+      <c r="A96" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="22" t="s">
         <v>287</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -8668,11 +8660,11 @@
       <c r="AN96" s="8"/>
       <c r="AO96" s="8"/>
     </row>
-    <row r="97" hidden="1" spans="1:41">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:41">
+      <c r="A97" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="22" t="s">
         <v>290</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -8725,11 +8717,11 @@
       <c r="AN97" s="8"/>
       <c r="AO97" s="8"/>
     </row>
-    <row r="98" hidden="1" spans="1:41">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:41">
+      <c r="A98" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="22" t="s">
         <v>292</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -8783,10 +8775,10 @@
       <c r="AO98" s="8"/>
     </row>
     <row r="99" spans="1:41">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="21" t="s">
         <v>294</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -8839,11 +8831,11 @@
       <c r="AN99" s="8"/>
       <c r="AO99" s="8"/>
     </row>
-    <row r="100" hidden="1" spans="1:41">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:41">
+      <c r="A100" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="22" t="s">
         <v>296</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -8896,11 +8888,11 @@
       <c r="AN100" s="8"/>
       <c r="AO100" s="8"/>
     </row>
-    <row r="101" hidden="1" spans="1:41">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:41">
+      <c r="A101" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="22" t="s">
         <v>299</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -8953,11 +8945,11 @@
       <c r="AN101" s="8"/>
       <c r="AO101" s="8"/>
     </row>
-    <row r="102" hidden="1" spans="1:41">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:41">
+      <c r="A102" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="22" t="s">
         <v>302</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -9010,11 +9002,11 @@
       <c r="AN102" s="8"/>
       <c r="AO102" s="8"/>
     </row>
-    <row r="103" hidden="1" spans="1:41">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:41">
+      <c r="A103" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="22" t="s">
         <v>304</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -9067,11 +9059,11 @@
       <c r="AN103" s="8"/>
       <c r="AO103" s="8"/>
     </row>
-    <row r="104" hidden="1" spans="1:41">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:41">
+      <c r="A104" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="22" t="s">
         <v>307</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -9124,11 +9116,11 @@
       <c r="AN104" s="8"/>
       <c r="AO104" s="8"/>
     </row>
-    <row r="105" hidden="1" spans="1:41">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:41">
+      <c r="A105" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="22" t="s">
         <v>310</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -9181,11 +9173,11 @@
       <c r="AN105" s="8"/>
       <c r="AO105" s="8"/>
     </row>
-    <row r="106" hidden="1" spans="1:41">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:41">
+      <c r="A106" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="22" t="s">
         <v>313</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -9238,11 +9230,11 @@
       <c r="AN106" s="8"/>
       <c r="AO106" s="8"/>
     </row>
-    <row r="107" hidden="1" spans="1:41">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="1:41">
+      <c r="A107" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="22" t="s">
         <v>315</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -9295,11 +9287,11 @@
       <c r="AN107" s="8"/>
       <c r="AO107" s="8"/>
     </row>
-    <row r="108" hidden="1" spans="1:41">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="1:41">
+      <c r="A108" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="22" t="s">
         <v>318</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -9352,11 +9344,11 @@
       <c r="AN108" s="8"/>
       <c r="AO108" s="8"/>
     </row>
-    <row r="109" hidden="1" spans="1:41">
-      <c r="A109" s="4" t="s">
+    <row r="109" spans="1:41">
+      <c r="A109" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="22" t="s">
         <v>320</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -9409,11 +9401,11 @@
       <c r="AN109" s="8"/>
       <c r="AO109" s="8"/>
     </row>
-    <row r="110" hidden="1" spans="1:41">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:41">
+      <c r="A110" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="22" t="s">
         <v>322</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -9466,11 +9458,11 @@
       <c r="AN110" s="8"/>
       <c r="AO110" s="8"/>
     </row>
-    <row r="111" hidden="1" spans="1:41">
-      <c r="A111" s="4" t="s">
+    <row r="111" spans="1:41">
+      <c r="A111" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="22" t="s">
         <v>325</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -9524,10 +9516,10 @@
       <c r="AO111" s="8"/>
     </row>
     <row r="112" spans="1:41">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="21" t="s">
         <v>327</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -9580,11 +9572,11 @@
       <c r="AN112" s="8"/>
       <c r="AO112" s="8"/>
     </row>
-    <row r="113" hidden="1" spans="1:41">
-      <c r="A113" s="4" t="s">
+    <row r="113" spans="1:41">
+      <c r="A113" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="22" t="s">
         <v>329</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -9637,11 +9629,11 @@
       <c r="AN113" s="8"/>
       <c r="AO113" s="8"/>
     </row>
-    <row r="114" hidden="1" spans="1:41">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:41">
+      <c r="A114" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="22" t="s">
         <v>331</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -9694,11 +9686,11 @@
       <c r="AN114" s="8"/>
       <c r="AO114" s="8"/>
     </row>
-    <row r="115" hidden="1" spans="1:41">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:41">
+      <c r="A115" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="22" t="s">
         <v>333</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -9751,11 +9743,11 @@
       <c r="AN115" s="8"/>
       <c r="AO115" s="8"/>
     </row>
-    <row r="116" hidden="1" spans="1:41">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:41">
+      <c r="A116" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="22" t="s">
         <v>335</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -9808,11 +9800,11 @@
       <c r="AN116" s="8"/>
       <c r="AO116" s="8"/>
     </row>
-    <row r="117" hidden="1" spans="1:41">
-      <c r="A117" s="4" t="s">
+    <row r="117" spans="1:41">
+      <c r="A117" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="22" t="s">
         <v>337</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -9865,11 +9857,11 @@
       <c r="AN117" s="8"/>
       <c r="AO117" s="8"/>
     </row>
-    <row r="118" hidden="1" spans="1:41">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:41">
+      <c r="A118" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="22" t="s">
         <v>339</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -9922,11 +9914,11 @@
       <c r="AN118" s="8"/>
       <c r="AO118" s="8"/>
     </row>
-    <row r="119" hidden="1" spans="1:41">
-      <c r="A119" s="4" t="s">
+    <row r="119" spans="1:41">
+      <c r="A119" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="22" t="s">
         <v>341</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -9979,11 +9971,11 @@
       <c r="AN119" s="8"/>
       <c r="AO119" s="8"/>
     </row>
-    <row r="120" hidden="1" spans="1:41">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="1:41">
+      <c r="A120" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="22" t="s">
         <v>344</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -10036,11 +10028,11 @@
       <c r="AN120" s="8"/>
       <c r="AO120" s="8"/>
     </row>
-    <row r="121" hidden="1" spans="1:41">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="1:41">
+      <c r="A121" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="22" t="s">
         <v>347</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -10093,11 +10085,11 @@
       <c r="AN121" s="8"/>
       <c r="AO121" s="8"/>
     </row>
-    <row r="122" hidden="1" spans="1:41">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:41">
+      <c r="A122" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="22" t="s">
         <v>349</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -10150,11 +10142,11 @@
       <c r="AN122" s="8"/>
       <c r="AO122" s="8"/>
     </row>
-    <row r="123" hidden="1" spans="1:41">
-      <c r="A123" s="4" t="s">
+    <row r="123" spans="1:41">
+      <c r="A123" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="22" t="s">
         <v>352</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -10207,11 +10199,11 @@
       <c r="AN123" s="8"/>
       <c r="AO123" s="8"/>
     </row>
-    <row r="124" hidden="1" spans="1:41">
-      <c r="A124" s="4" t="s">
+    <row r="124" spans="1:41">
+      <c r="A124" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="22" t="s">
         <v>355</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -10265,10 +10257,10 @@
       <c r="AO124" s="8"/>
     </row>
     <row r="125" spans="1:41">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="21" t="s">
         <v>357</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -10321,11 +10313,11 @@
       <c r="AN125" s="8"/>
       <c r="AO125" s="8"/>
     </row>
-    <row r="126" hidden="1" spans="1:41">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="1:41">
+      <c r="A126" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="22" t="s">
         <v>360</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -10378,11 +10370,11 @@
       <c r="AN126" s="8"/>
       <c r="AO126" s="8"/>
     </row>
-    <row r="127" hidden="1" spans="1:41">
-      <c r="A127" s="4" t="s">
+    <row r="127" spans="1:41">
+      <c r="A127" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="22" t="s">
         <v>362</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -10436,10 +10428,10 @@
       <c r="AO127" s="8"/>
     </row>
     <row r="128" spans="1:41">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="21" t="s">
         <v>364</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -10492,11 +10484,11 @@
       <c r="AN128" s="8"/>
       <c r="AO128" s="8"/>
     </row>
-    <row r="129" hidden="1" spans="1:41">
-      <c r="A129" s="4" t="s">
+    <row r="129" spans="1:41">
+      <c r="A129" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="22" t="s">
         <v>366</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -10549,11 +10541,11 @@
       <c r="AN129" s="8"/>
       <c r="AO129" s="8"/>
     </row>
-    <row r="130" hidden="1" spans="1:41">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:41">
+      <c r="A130" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="22" t="s">
         <v>369</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -10606,11 +10598,11 @@
       <c r="AN130" s="8"/>
       <c r="AO130" s="8"/>
     </row>
-    <row r="131" hidden="1" spans="1:41">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:41">
+      <c r="A131" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="22" t="s">
         <v>372</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -10663,11 +10655,11 @@
       <c r="AN131" s="8"/>
       <c r="AO131" s="8"/>
     </row>
-    <row r="132" hidden="1" spans="1:41">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:41">
+      <c r="A132" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -10720,11 +10712,11 @@
       <c r="AN132" s="8"/>
       <c r="AO132" s="8"/>
     </row>
-    <row r="133" hidden="1" spans="1:41">
-      <c r="A133" s="4" t="s">
+    <row r="133" spans="1:41">
+      <c r="A133" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="22" t="s">
         <v>377</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -10777,11 +10769,11 @@
       <c r="AN133" s="8"/>
       <c r="AO133" s="8"/>
     </row>
-    <row r="134" hidden="1" spans="1:41">
-      <c r="A134" s="4" t="s">
+    <row r="134" spans="1:41">
+      <c r="A134" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="22" t="s">
         <v>379</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -10834,11 +10826,11 @@
       <c r="AN134" s="8"/>
       <c r="AO134" s="8"/>
     </row>
-    <row r="135" hidden="1" spans="1:41">
-      <c r="A135" s="4" t="s">
+    <row r="135" spans="1:41">
+      <c r="A135" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="22" t="s">
         <v>382</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -10891,11 +10883,11 @@
       <c r="AN135" s="8"/>
       <c r="AO135" s="8"/>
     </row>
-    <row r="136" hidden="1" spans="1:41">
-      <c r="A136" s="4" t="s">
+    <row r="136" spans="1:41">
+      <c r="A136" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="22" t="s">
         <v>384</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -10948,11 +10940,11 @@
       <c r="AN136" s="8"/>
       <c r="AO136" s="8"/>
     </row>
-    <row r="137" hidden="1" spans="1:41">
-      <c r="A137" s="4" t="s">
+    <row r="137" spans="1:41">
+      <c r="A137" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="22" t="s">
         <v>386</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -11005,11 +10997,11 @@
       <c r="AN137" s="8"/>
       <c r="AO137" s="8"/>
     </row>
-    <row r="138" hidden="1" spans="1:41">
-      <c r="A138" s="4" t="s">
+    <row r="138" spans="1:41">
+      <c r="A138" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="B138" s="20" t="s">
+      <c r="B138" s="22" t="s">
         <v>389</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -11062,11 +11054,11 @@
       <c r="AN138" s="8"/>
       <c r="AO138" s="8"/>
     </row>
-    <row r="139" hidden="1" spans="1:41">
-      <c r="A139" s="4" t="s">
+    <row r="139" spans="1:41">
+      <c r="A139" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="22" t="s">
         <v>391</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -11119,11 +11111,11 @@
       <c r="AN139" s="8"/>
       <c r="AO139" s="8"/>
     </row>
-    <row r="140" hidden="1" spans="1:41">
-      <c r="A140" s="4" t="s">
+    <row r="140" spans="1:41">
+      <c r="A140" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="22" t="s">
         <v>393</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -11176,11 +11168,11 @@
       <c r="AN140" s="8"/>
       <c r="AO140" s="8"/>
     </row>
-    <row r="141" hidden="1" spans="1:41">
-      <c r="A141" s="4" t="s">
+    <row r="141" spans="1:41">
+      <c r="A141" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="22" t="s">
         <v>395</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -11233,11 +11225,11 @@
       <c r="AN141" s="8"/>
       <c r="AO141" s="8"/>
     </row>
-    <row r="142" hidden="1" spans="1:41">
-      <c r="A142" s="4" t="s">
+    <row r="142" spans="1:41">
+      <c r="A142" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B142" s="20" t="s">
+      <c r="B142" s="22" t="s">
         <v>397</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -11290,11 +11282,11 @@
       <c r="AN142" s="8"/>
       <c r="AO142" s="8"/>
     </row>
-    <row r="143" hidden="1" spans="1:41">
-      <c r="A143" s="4" t="s">
+    <row r="143" spans="1:41">
+      <c r="A143" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -11347,11 +11339,11 @@
       <c r="AN143" s="8"/>
       <c r="AO143" s="8"/>
     </row>
-    <row r="144" hidden="1" spans="1:41">
-      <c r="A144" s="4" t="s">
+    <row r="144" spans="1:41">
+      <c r="A144" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B144" s="20" t="s">
+      <c r="B144" s="22" t="s">
         <v>403</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -11404,11 +11396,11 @@
       <c r="AN144" s="8"/>
       <c r="AO144" s="8"/>
     </row>
-    <row r="145" hidden="1" spans="1:41">
-      <c r="A145" s="4" t="s">
+    <row r="145" spans="1:41">
+      <c r="A145" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="22" t="s">
         <v>405</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -11461,11 +11453,11 @@
       <c r="AN145" s="8"/>
       <c r="AO145" s="8"/>
     </row>
-    <row r="146" hidden="1" spans="1:41">
-      <c r="A146" s="4" t="s">
+    <row r="146" spans="1:41">
+      <c r="A146" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="22" t="s">
         <v>407</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -11518,11 +11510,11 @@
       <c r="AN146" s="8"/>
       <c r="AO146" s="8"/>
     </row>
-    <row r="147" hidden="1" spans="1:41">
-      <c r="A147" s="4" t="s">
+    <row r="147" spans="1:41">
+      <c r="A147" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="22" t="s">
         <v>410</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -11575,11 +11567,11 @@
       <c r="AN147" s="8"/>
       <c r="AO147" s="8"/>
     </row>
-    <row r="148" hidden="1" spans="1:41">
-      <c r="A148" s="4" t="s">
+    <row r="148" spans="1:41">
+      <c r="A148" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B148" s="20" t="s">
+      <c r="B148" s="22" t="s">
         <v>412</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -11632,11 +11624,11 @@
       <c r="AN148" s="8"/>
       <c r="AO148" s="8"/>
     </row>
-    <row r="149" hidden="1" spans="1:41">
-      <c r="A149" s="4" t="s">
+    <row r="149" spans="1:41">
+      <c r="A149" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="22" t="s">
         <v>415</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -11689,11 +11681,11 @@
       <c r="AN149" s="8"/>
       <c r="AO149" s="8"/>
     </row>
-    <row r="150" hidden="1" spans="1:41">
-      <c r="A150" s="4" t="s">
+    <row r="150" spans="1:41">
+      <c r="A150" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="B150" s="20" t="s">
+      <c r="B150" s="22" t="s">
         <v>417</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -11746,11 +11738,11 @@
       <c r="AN150" s="8"/>
       <c r="AO150" s="8"/>
     </row>
-    <row r="151" hidden="1" spans="1:41">
-      <c r="A151" s="4" t="s">
+    <row r="151" spans="1:41">
+      <c r="A151" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="B151" s="20" t="s">
+      <c r="B151" s="22" t="s">
         <v>419</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -11803,11 +11795,11 @@
       <c r="AN151" s="8"/>
       <c r="AO151" s="8"/>
     </row>
-    <row r="152" hidden="1" spans="1:41">
-      <c r="A152" s="4" t="s">
+    <row r="152" spans="1:41">
+      <c r="A152" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="B152" s="20" t="s">
+      <c r="B152" s="22" t="s">
         <v>421</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -11860,11 +11852,11 @@
       <c r="AN152" s="8"/>
       <c r="AO152" s="8"/>
     </row>
-    <row r="153" hidden="1" spans="1:41">
-      <c r="A153" s="4" t="s">
+    <row r="153" spans="1:41">
+      <c r="A153" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="B153" s="20" t="s">
+      <c r="B153" s="22" t="s">
         <v>423</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -11917,11 +11909,11 @@
       <c r="AN153" s="8"/>
       <c r="AO153" s="8"/>
     </row>
-    <row r="154" hidden="1" spans="1:41">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:41">
+      <c r="A154" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="22" t="s">
         <v>426</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -11974,11 +11966,11 @@
       <c r="AN154" s="8"/>
       <c r="AO154" s="8"/>
     </row>
-    <row r="155" hidden="1" spans="1:41">
-      <c r="A155" s="4" t="s">
+    <row r="155" spans="1:41">
+      <c r="A155" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="22" t="s">
         <v>429</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -12031,11 +12023,11 @@
       <c r="AN155" s="8"/>
       <c r="AO155" s="8"/>
     </row>
-    <row r="156" hidden="1" spans="1:41">
-      <c r="A156" s="4" t="s">
+    <row r="156" spans="1:41">
+      <c r="A156" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="22" t="s">
         <v>432</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -12089,10 +12081,10 @@
       <c r="AO156" s="8"/>
     </row>
     <row r="157" spans="1:41">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="21" t="s">
         <v>435</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -12145,11 +12137,11 @@
       <c r="AN157" s="8"/>
       <c r="AO157" s="8"/>
     </row>
-    <row r="158" hidden="1" spans="1:41">
-      <c r="A158" s="4" t="s">
+    <row r="158" spans="1:41">
+      <c r="A158" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B158" s="20" t="s">
+      <c r="B158" s="22" t="s">
         <v>437</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -12202,11 +12194,11 @@
       <c r="AN158" s="8"/>
       <c r="AO158" s="8"/>
     </row>
-    <row r="159" hidden="1" spans="1:41">
-      <c r="A159" s="4" t="s">
+    <row r="159" spans="1:41">
+      <c r="A159" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="22" t="s">
         <v>439</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -12259,11 +12251,11 @@
       <c r="AN159" s="8"/>
       <c r="AO159" s="8"/>
     </row>
-    <row r="160" hidden="1" spans="1:41">
-      <c r="A160" s="4" t="s">
+    <row r="160" spans="1:41">
+      <c r="A160" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="22" t="s">
         <v>441</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -12316,11 +12308,11 @@
       <c r="AN160" s="8"/>
       <c r="AO160" s="8"/>
     </row>
-    <row r="161" hidden="1" spans="1:41">
-      <c r="A161" s="4" t="s">
+    <row r="161" spans="1:41">
+      <c r="A161" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="22" t="s">
         <v>443</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -12373,11 +12365,11 @@
       <c r="AN161" s="8"/>
       <c r="AO161" s="8"/>
     </row>
-    <row r="162" hidden="1" spans="1:41">
-      <c r="A162" s="4" t="s">
+    <row r="162" spans="1:41">
+      <c r="A162" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="B162" s="20" t="s">
+      <c r="B162" s="22" t="s">
         <v>445</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -12430,11 +12422,11 @@
       <c r="AN162" s="8"/>
       <c r="AO162" s="8"/>
     </row>
-    <row r="163" hidden="1" spans="1:41">
-      <c r="A163" s="4" t="s">
+    <row r="163" spans="1:41">
+      <c r="A163" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B163" s="20" t="s">
+      <c r="B163" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -12487,11 +12479,11 @@
       <c r="AN163" s="8"/>
       <c r="AO163" s="8"/>
     </row>
-    <row r="164" hidden="1" spans="1:41">
-      <c r="A164" s="4" t="s">
+    <row r="164" spans="1:41">
+      <c r="A164" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="22" t="s">
         <v>450</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -12544,11 +12536,11 @@
       <c r="AN164" s="8"/>
       <c r="AO164" s="8"/>
     </row>
-    <row r="165" hidden="1" spans="1:41">
-      <c r="A165" s="4" t="s">
+    <row r="165" spans="1:41">
+      <c r="A165" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="B165" s="20" t="s">
+      <c r="B165" s="22" t="s">
         <v>453</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -12601,11 +12593,11 @@
       <c r="AN165" s="8"/>
       <c r="AO165" s="8"/>
     </row>
-    <row r="166" hidden="1" spans="1:41">
-      <c r="A166" s="4" t="s">
+    <row r="166" spans="1:41">
+      <c r="A166" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B166" s="20" t="s">
+      <c r="B166" s="22" t="s">
         <v>455</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -12658,11 +12650,11 @@
       <c r="AN166" s="8"/>
       <c r="AO166" s="8"/>
     </row>
-    <row r="167" hidden="1" spans="1:41">
-      <c r="A167" s="4" t="s">
+    <row r="167" spans="1:41">
+      <c r="A167" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="22" t="s">
         <v>458</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -12715,11 +12707,11 @@
       <c r="AN167" s="8"/>
       <c r="AO167" s="8"/>
     </row>
-    <row r="168" hidden="1" spans="1:41">
-      <c r="A168" s="4" t="s">
+    <row r="168" spans="1:41">
+      <c r="A168" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="22" t="s">
         <v>460</v>
       </c>
       <c r="C168" s="4" t="s">
@@ -12772,11 +12764,11 @@
       <c r="AN168" s="8"/>
       <c r="AO168" s="8"/>
     </row>
-    <row r="169" hidden="1" spans="1:41">
-      <c r="A169" s="4" t="s">
+    <row r="169" spans="1:41">
+      <c r="A169" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B169" s="20" t="s">
+      <c r="B169" s="22" t="s">
         <v>463</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -12829,11 +12821,11 @@
       <c r="AN169" s="8"/>
       <c r="AO169" s="8"/>
     </row>
-    <row r="170" hidden="1" spans="1:41">
-      <c r="A170" s="4" t="s">
+    <row r="170" spans="1:41">
+      <c r="A170" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="22" t="s">
         <v>465</v>
       </c>
       <c r="C170" s="4" t="s">
@@ -12886,11 +12878,11 @@
       <c r="AN170" s="8"/>
       <c r="AO170" s="8"/>
     </row>
-    <row r="171" hidden="1" spans="1:41">
-      <c r="A171" s="4" t="s">
+    <row r="171" spans="1:41">
+      <c r="A171" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B171" s="20" t="s">
+      <c r="B171" s="22" t="s">
         <v>468</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -12943,11 +12935,11 @@
       <c r="AN171" s="8"/>
       <c r="AO171" s="8"/>
     </row>
-    <row r="172" hidden="1" spans="1:41">
-      <c r="A172" s="4" t="s">
+    <row r="172" spans="1:41">
+      <c r="A172" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B172" s="22" t="s">
         <v>470</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -13000,11 +12992,11 @@
       <c r="AN172" s="8"/>
       <c r="AO172" s="8"/>
     </row>
-    <row r="173" hidden="1" spans="1:41">
-      <c r="A173" s="4" t="s">
+    <row r="173" spans="1:41">
+      <c r="A173" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B173" s="20" t="s">
+      <c r="B173" s="22" t="s">
         <v>472</v>
       </c>
       <c r="C173" s="4" t="s">
@@ -13057,11 +13049,11 @@
       <c r="AN173" s="8"/>
       <c r="AO173" s="8"/>
     </row>
-    <row r="174" hidden="1" spans="1:41">
-      <c r="A174" s="4" t="s">
+    <row r="174" spans="1:41">
+      <c r="A174" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="22" t="s">
         <v>474</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -13115,10 +13107,10 @@
       <c r="AO174" s="8"/>
     </row>
     <row r="175" spans="1:41">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="21" t="s">
         <v>477</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -13172,10 +13164,10 @@
       <c r="AO175" s="8"/>
     </row>
     <row r="176" spans="1:41">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="21" t="s">
         <v>479</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -13229,10 +13221,10 @@
       <c r="AO176" s="8"/>
     </row>
     <row r="177" spans="1:41">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="21" t="s">
         <v>481</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -13285,11 +13277,11 @@
       <c r="AN177" s="8"/>
       <c r="AO177" s="8"/>
     </row>
-    <row r="178" hidden="1" spans="1:41">
-      <c r="A178" s="4" t="s">
+    <row r="178" spans="1:41">
+      <c r="A178" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B178" s="20" t="s">
+      <c r="B178" s="22" t="s">
         <v>483</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -13342,11 +13334,11 @@
       <c r="AN178" s="8"/>
       <c r="AO178" s="8"/>
     </row>
-    <row r="179" hidden="1" spans="1:41">
-      <c r="A179" s="4" t="s">
+    <row r="179" spans="1:41">
+      <c r="A179" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B179" s="20" t="s">
+      <c r="B179" s="22" t="s">
         <v>486</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -13399,11 +13391,11 @@
       <c r="AN179" s="8"/>
       <c r="AO179" s="8"/>
     </row>
-    <row r="180" hidden="1" spans="1:41">
-      <c r="A180" s="4" t="s">
+    <row r="180" spans="1:41">
+      <c r="A180" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B180" s="20" t="s">
+      <c r="B180" s="22" t="s">
         <v>488</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -13456,11 +13448,11 @@
       <c r="AN180" s="8"/>
       <c r="AO180" s="8"/>
     </row>
-    <row r="181" hidden="1" spans="1:41">
-      <c r="A181" s="4" t="s">
+    <row r="181" spans="1:41">
+      <c r="A181" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="22" t="s">
         <v>490</v>
       </c>
       <c r="C181" s="4" t="s">
@@ -13513,11 +13505,11 @@
       <c r="AN181" s="8"/>
       <c r="AO181" s="8"/>
     </row>
-    <row r="182" hidden="1" spans="1:41">
-      <c r="A182" s="4" t="s">
+    <row r="182" spans="1:41">
+      <c r="A182" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B182" s="20" t="s">
+      <c r="B182" s="22" t="s">
         <v>492</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -13570,11 +13562,11 @@
       <c r="AN182" s="8"/>
       <c r="AO182" s="8"/>
     </row>
-    <row r="183" hidden="1" spans="1:41">
-      <c r="A183" s="4" t="s">
+    <row r="183" spans="1:41">
+      <c r="A183" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B183" s="20" t="s">
+      <c r="B183" s="22" t="s">
         <v>494</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -13627,11 +13619,11 @@
       <c r="AN183" s="8"/>
       <c r="AO183" s="8"/>
     </row>
-    <row r="184" hidden="1" spans="1:41">
-      <c r="A184" s="4" t="s">
+    <row r="184" spans="1:41">
+      <c r="A184" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B184" s="20" t="s">
+      <c r="B184" s="22" t="s">
         <v>497</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -13684,11 +13676,11 @@
       <c r="AN184" s="8"/>
       <c r="AO184" s="8"/>
     </row>
-    <row r="185" hidden="1" spans="1:41">
-      <c r="A185" s="4" t="s">
+    <row r="185" spans="1:41">
+      <c r="A185" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B185" s="20" t="s">
+      <c r="B185" s="22" t="s">
         <v>499</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -13741,11 +13733,11 @@
       <c r="AN185" s="8"/>
       <c r="AO185" s="8"/>
     </row>
-    <row r="186" hidden="1" spans="1:41">
-      <c r="A186" s="4" t="s">
+    <row r="186" spans="1:41">
+      <c r="A186" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="B186" s="20" t="s">
+      <c r="B186" s="22" t="s">
         <v>501</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -13798,11 +13790,11 @@
       <c r="AN186" s="8"/>
       <c r="AO186" s="8"/>
     </row>
-    <row r="187" hidden="1" spans="1:41">
-      <c r="A187" s="4" t="s">
+    <row r="187" spans="1:41">
+      <c r="A187" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B187" s="20" t="s">
+      <c r="B187" s="22" t="s">
         <v>503</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -13855,11 +13847,11 @@
       <c r="AN187" s="8"/>
       <c r="AO187" s="8"/>
     </row>
-    <row r="188" hidden="1" spans="1:41">
-      <c r="A188" s="4" t="s">
+    <row r="188" spans="1:41">
+      <c r="A188" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B188" s="20" t="s">
+      <c r="B188" s="22" t="s">
         <v>505</v>
       </c>
       <c r="C188" s="4" t="s">
@@ -13912,11 +13904,11 @@
       <c r="AN188" s="8"/>
       <c r="AO188" s="8"/>
     </row>
-    <row r="189" hidden="1" spans="1:41">
-      <c r="A189" s="4" t="s">
+    <row r="189" spans="1:41">
+      <c r="A189" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B189" s="20" t="s">
+      <c r="B189" s="22" t="s">
         <v>507</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -13970,10 +13962,10 @@
       <c r="AO189" s="8"/>
     </row>
     <row r="190" spans="1:41">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="21" t="s">
         <v>509</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -14026,11 +14018,11 @@
       <c r="AN190" s="8"/>
       <c r="AO190" s="8"/>
     </row>
-    <row r="191" hidden="1" spans="1:41">
-      <c r="A191" s="4" t="s">
+    <row r="191" spans="1:41">
+      <c r="A191" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="B191" s="20" t="s">
+      <c r="B191" s="22" t="s">
         <v>511</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -14083,11 +14075,11 @@
       <c r="AN191" s="8"/>
       <c r="AO191" s="8"/>
     </row>
-    <row r="192" hidden="1" spans="1:41">
-      <c r="A192" s="4" t="s">
+    <row r="192" spans="1:41">
+      <c r="A192" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="B192" s="20" t="s">
+      <c r="B192" s="22" t="s">
         <v>513</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -14141,10 +14133,10 @@
       <c r="AO192" s="8"/>
     </row>
     <row r="193" spans="1:41">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="21" t="s">
         <v>515</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -14197,7 +14189,7 @@
       <c r="AN193" s="8"/>
       <c r="AO193" s="8"/>
     </row>
-    <row r="194" hidden="1" spans="1:41">
+    <row r="194" spans="1:41">
       <c r="A194" s="4" t="s">
         <v>517</v>
       </c>
@@ -14254,7 +14246,7 @@
       <c r="AN194" s="8"/>
       <c r="AO194" s="8"/>
     </row>
-    <row r="195" hidden="1" spans="1:41">
+    <row r="195" spans="1:41">
       <c r="A195" s="4" t="s">
         <v>519</v>
       </c>
@@ -14311,7 +14303,7 @@
       <c r="AN195" s="8"/>
       <c r="AO195" s="8"/>
     </row>
-    <row r="196" hidden="1" spans="1:41">
+    <row r="196" spans="1:41">
       <c r="A196" s="4" t="s">
         <v>521</v>
       </c>
@@ -14368,7 +14360,7 @@
       <c r="AN196" s="8"/>
       <c r="AO196" s="8"/>
     </row>
-    <row r="197" hidden="1" spans="1:41">
+    <row r="197" spans="1:41">
       <c r="A197" s="4" t="s">
         <v>523</v>
       </c>
@@ -14425,7 +14417,7 @@
       <c r="AN197" s="8"/>
       <c r="AO197" s="8"/>
     </row>
-    <row r="198" hidden="1" spans="1:41">
+    <row r="198" spans="1:41">
       <c r="A198" s="4" t="s">
         <v>525</v>
       </c>
@@ -14482,7 +14474,7 @@
       <c r="AN198" s="8"/>
       <c r="AO198" s="8"/>
     </row>
-    <row r="199" hidden="1" spans="1:41">
+    <row r="199" spans="1:41">
       <c r="A199" s="4" t="s">
         <v>528</v>
       </c>
@@ -14539,7 +14531,7 @@
       <c r="AN199" s="8"/>
       <c r="AO199" s="8"/>
     </row>
-    <row r="200" hidden="1" spans="1:41">
+    <row r="200" spans="1:41">
       <c r="A200" s="4" t="s">
         <v>530</v>
       </c>
@@ -14596,7 +14588,7 @@
       <c r="AN200" s="8"/>
       <c r="AO200" s="8"/>
     </row>
-    <row r="201" hidden="1" spans="1:41">
+    <row r="201" spans="1:41">
       <c r="A201" s="4" t="s">
         <v>532</v>
       </c>
@@ -14653,7 +14645,7 @@
       <c r="AN201" s="8"/>
       <c r="AO201" s="8"/>
     </row>
-    <row r="202" hidden="1" spans="1:41">
+    <row r="202" spans="1:41">
       <c r="A202" s="4" t="s">
         <v>535</v>
       </c>
@@ -14710,7 +14702,7 @@
       <c r="AN202" s="8"/>
       <c r="AO202" s="8"/>
     </row>
-    <row r="203" hidden="1" spans="1:41">
+    <row r="203" spans="1:41">
       <c r="A203" s="4" t="s">
         <v>537</v>
       </c>
@@ -14767,7 +14759,7 @@
       <c r="AN203" s="8"/>
       <c r="AO203" s="8"/>
     </row>
-    <row r="204" hidden="1" spans="1:41">
+    <row r="204" spans="1:41">
       <c r="A204" s="4" t="s">
         <v>539</v>
       </c>
@@ -14824,7 +14816,7 @@
       <c r="AN204" s="8"/>
       <c r="AO204" s="8"/>
     </row>
-    <row r="205" hidden="1" spans="1:41">
+    <row r="205" spans="1:41">
       <c r="A205" s="4" t="s">
         <v>541</v>
       </c>
@@ -14881,7 +14873,7 @@
       <c r="AN205" s="8"/>
       <c r="AO205" s="8"/>
     </row>
-    <row r="206" hidden="1" spans="1:41">
+    <row r="206" spans="1:41">
       <c r="A206" s="4" t="s">
         <v>544</v>
       </c>
@@ -14938,7 +14930,7 @@
       <c r="AN206" s="8"/>
       <c r="AO206" s="8"/>
     </row>
-    <row r="207" hidden="1" spans="1:41">
+    <row r="207" spans="1:41">
       <c r="A207" s="4" t="s">
         <v>546</v>
       </c>
@@ -14995,7 +14987,7 @@
       <c r="AN207" s="8"/>
       <c r="AO207" s="8"/>
     </row>
-    <row r="208" hidden="1" spans="1:41">
+    <row r="208" spans="1:41">
       <c r="A208" s="4" t="s">
         <v>548</v>
       </c>
@@ -15052,7 +15044,7 @@
       <c r="AN208" s="8"/>
       <c r="AO208" s="8"/>
     </row>
-    <row r="209" hidden="1" spans="1:41">
+    <row r="209" spans="1:41">
       <c r="A209" s="4" t="s">
         <v>551</v>
       </c>
@@ -15109,7 +15101,7 @@
       <c r="AN209" s="8"/>
       <c r="AO209" s="8"/>
     </row>
-    <row r="210" hidden="1" spans="1:41">
+    <row r="210" spans="1:41">
       <c r="A210" s="4" t="s">
         <v>553</v>
       </c>
@@ -15166,7 +15158,7 @@
       <c r="AN210" s="8"/>
       <c r="AO210" s="8"/>
     </row>
-    <row r="211" hidden="1" spans="1:41">
+    <row r="211" spans="1:41">
       <c r="A211" s="4" t="s">
         <v>555</v>
       </c>
@@ -15224,11 +15216,6 @@
       <c r="AO211" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B211">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="P1:AH1"/>
@@ -15259,7 +15246,7 @@
     <mergeCell ref="AO1:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -15271,12 +15258,12 @@
   <sheetPr/>
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -16332,7 +16319,7 @@
     <mergeCell ref="AO1:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="B1 B4:B17">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/交易分析/2022年第三季度/技术面2022-11-02.xlsx
+++ b/交易分析/2022年第三季度/技术面2022-11-02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26000" windowHeight="13420"/>
+    <workbookView windowWidth="26000" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
@@ -1950,12 +1950,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1978,22 +1978,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2007,6 +1992,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2014,11 +2007,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2029,25 +2022,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2061,8 +2044,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2084,22 +2068,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2113,9 +2082,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2173,7 +2173,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,13 +2203,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,151 +2341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2416,8 +2416,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2448,11 +2448,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2467,21 +2480,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2504,161 +2502,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2713,12 +2713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3123,12 +3117,12 @@
   <sheetPr/>
   <dimension ref="A1:AO211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -3588,10 +3582,10 @@
       <c r="AO7" s="8"/>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3645,10 +3639,10 @@
       <c r="AO8" s="8"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3702,10 +3696,10 @@
       <c r="AO9" s="8"/>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3759,10 +3753,10 @@
       <c r="AO10" s="8"/>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3816,10 +3810,10 @@
       <c r="AO11" s="8"/>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3873,10 +3867,10 @@
       <c r="AO12" s="8"/>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3930,10 +3924,10 @@
       <c r="AO13" s="8"/>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3987,10 +3981,10 @@
       <c r="AO14" s="8"/>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4044,10 +4038,10 @@
       <c r="AO15" s="8"/>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4101,10 +4095,10 @@
       <c r="AO16" s="8"/>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4158,10 +4152,10 @@
       <c r="AO17" s="8"/>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4215,10 +4209,10 @@
       <c r="AO18" s="8"/>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4272,10 +4266,10 @@
       <c r="AO19" s="8"/>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -4329,10 +4323,10 @@
       <c r="AO20" s="8"/>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -4386,10 +4380,10 @@
       <c r="AO21" s="8"/>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -4443,10 +4437,10 @@
       <c r="AO22" s="8"/>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4500,10 +4494,10 @@
       <c r="AO23" s="8"/>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -4557,10 +4551,10 @@
       <c r="AO24" s="8"/>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4614,10 +4608,10 @@
       <c r="AO25" s="8"/>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -4671,10 +4665,10 @@
       <c r="AO26" s="8"/>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4728,10 +4722,10 @@
       <c r="AO27" s="8"/>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -4785,10 +4779,10 @@
       <c r="AO28" s="8"/>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4842,10 +4836,10 @@
       <c r="AO29" s="8"/>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -4899,10 +4893,10 @@
       <c r="AO30" s="8"/>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -4956,10 +4950,10 @@
       <c r="AO31" s="8"/>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -5013,10 +5007,10 @@
       <c r="AO32" s="8"/>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -5070,10 +5064,10 @@
       <c r="AO33" s="8"/>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -5127,10 +5121,10 @@
       <c r="AO34" s="8"/>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -5184,10 +5178,10 @@
       <c r="AO35" s="8"/>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -5241,10 +5235,10 @@
       <c r="AO36" s="8"/>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -5298,10 +5292,10 @@
       <c r="AO37" s="8"/>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -5355,10 +5349,10 @@
       <c r="AO38" s="8"/>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -5412,10 +5406,10 @@
       <c r="AO39" s="8"/>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -5469,10 +5463,10 @@
       <c r="AO40" s="8"/>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -5526,10 +5520,10 @@
       <c r="AO41" s="8"/>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -5583,10 +5577,10 @@
       <c r="AO42" s="8"/>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -5640,10 +5634,10 @@
       <c r="AO43" s="8"/>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -5697,10 +5691,10 @@
       <c r="AO44" s="8"/>
     </row>
     <row r="45" spans="1:41">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -5754,10 +5748,10 @@
       <c r="AO45" s="8"/>
     </row>
     <row r="46" spans="1:41">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -5811,10 +5805,10 @@
       <c r="AO46" s="8"/>
     </row>
     <row r="47" spans="1:41">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -5868,10 +5862,10 @@
       <c r="AO47" s="8"/>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -5925,10 +5919,10 @@
       <c r="AO48" s="8"/>
     </row>
     <row r="49" spans="1:41">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>162</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -5982,10 +5976,10 @@
       <c r="AO49" s="8"/>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -6039,10 +6033,10 @@
       <c r="AO50" s="8"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -6096,10 +6090,10 @@
       <c r="AO51" s="8"/>
     </row>
     <row r="52" spans="1:41">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -6153,10 +6147,10 @@
       <c r="AO52" s="8"/>
     </row>
     <row r="53" spans="1:41">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>172</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -6210,10 +6204,10 @@
       <c r="AO53" s="8"/>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -6267,10 +6261,10 @@
       <c r="AO54" s="8"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="20" t="s">
         <v>178</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -6324,10 +6318,10 @@
       <c r="AO55" s="8"/>
     </row>
     <row r="56" spans="1:41">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>181</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -6381,10 +6375,10 @@
       <c r="AO56" s="8"/>
     </row>
     <row r="57" spans="1:41">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="20" t="s">
         <v>183</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -6438,10 +6432,10 @@
       <c r="AO57" s="8"/>
     </row>
     <row r="58" spans="1:41">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>186</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -6495,10 +6489,10 @@
       <c r="AO58" s="8"/>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="20" t="s">
         <v>189</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -6552,10 +6546,10 @@
       <c r="AO59" s="8"/>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="20" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -6609,10 +6603,10 @@
       <c r="AO60" s="8"/>
     </row>
     <row r="61" spans="1:41">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="20" t="s">
         <v>194</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -6666,10 +6660,10 @@
       <c r="AO61" s="8"/>
     </row>
     <row r="62" spans="1:41">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="20" t="s">
         <v>197</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -6723,10 +6717,10 @@
       <c r="AO62" s="8"/>
     </row>
     <row r="63" spans="1:41">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="20" t="s">
         <v>199</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -6780,10 +6774,10 @@
       <c r="AO63" s="8"/>
     </row>
     <row r="64" spans="1:41">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="20" t="s">
         <v>202</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -6837,10 +6831,10 @@
       <c r="AO64" s="8"/>
     </row>
     <row r="65" spans="1:41">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="20" t="s">
         <v>205</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -6894,10 +6888,10 @@
       <c r="AO65" s="8"/>
     </row>
     <row r="66" spans="1:41">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="20" t="s">
         <v>208</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -6951,10 +6945,10 @@
       <c r="AO66" s="8"/>
     </row>
     <row r="67" spans="1:41">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="20" t="s">
         <v>211</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -7008,10 +7002,10 @@
       <c r="AO67" s="8"/>
     </row>
     <row r="68" spans="1:41">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="20" t="s">
         <v>214</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -7065,10 +7059,10 @@
       <c r="AO68" s="8"/>
     </row>
     <row r="69" spans="1:41">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="20" t="s">
         <v>216</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -7122,10 +7116,10 @@
       <c r="AO69" s="8"/>
     </row>
     <row r="70" spans="1:41">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="20" t="s">
         <v>218</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -7179,10 +7173,10 @@
       <c r="AO70" s="8"/>
     </row>
     <row r="71" spans="1:41">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -7236,10 +7230,10 @@
       <c r="AO71" s="8"/>
     </row>
     <row r="72" spans="1:41">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="20" t="s">
         <v>224</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -7293,10 +7287,10 @@
       <c r="AO72" s="8"/>
     </row>
     <row r="73" spans="1:41">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="20" t="s">
         <v>226</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -7350,10 +7344,10 @@
       <c r="AO73" s="8"/>
     </row>
     <row r="74" spans="1:41">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="20" t="s">
         <v>229</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -7407,10 +7401,10 @@
       <c r="AO74" s="8"/>
     </row>
     <row r="75" spans="1:41">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="20" t="s">
         <v>232</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -7464,10 +7458,10 @@
       <c r="AO75" s="8"/>
     </row>
     <row r="76" spans="1:41">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -7521,10 +7515,10 @@
       <c r="AO76" s="8"/>
     </row>
     <row r="77" spans="1:41">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="20" t="s">
         <v>237</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -7578,10 +7572,10 @@
       <c r="AO77" s="8"/>
     </row>
     <row r="78" spans="1:41">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="20" t="s">
         <v>240</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -7635,10 +7629,10 @@
       <c r="AO78" s="8"/>
     </row>
     <row r="79" spans="1:41">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="20" t="s">
         <v>242</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -7692,10 +7686,10 @@
       <c r="AO79" s="8"/>
     </row>
     <row r="80" spans="1:41">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="20" t="s">
         <v>245</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -7749,10 +7743,10 @@
       <c r="AO80" s="8"/>
     </row>
     <row r="81" spans="1:41">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="20" t="s">
         <v>247</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -7806,10 +7800,10 @@
       <c r="AO81" s="8"/>
     </row>
     <row r="82" spans="1:41">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="20" t="s">
         <v>249</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -7863,10 +7857,10 @@
       <c r="AO82" s="8"/>
     </row>
     <row r="83" spans="1:41">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="20" t="s">
         <v>252</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -7920,10 +7914,10 @@
       <c r="AO83" s="8"/>
     </row>
     <row r="84" spans="1:41">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="20" t="s">
         <v>255</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -7977,10 +7971,10 @@
       <c r="AO84" s="8"/>
     </row>
     <row r="85" spans="1:41">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="20" t="s">
         <v>258</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -8034,10 +8028,10 @@
       <c r="AO85" s="8"/>
     </row>
     <row r="86" spans="1:41">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="20" t="s">
         <v>261</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -8091,10 +8085,10 @@
       <c r="AO86" s="8"/>
     </row>
     <row r="87" spans="1:41">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="20" t="s">
         <v>264</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -8148,10 +8142,10 @@
       <c r="AO87" s="8"/>
     </row>
     <row r="88" spans="1:41">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="20" t="s">
         <v>266</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -8205,10 +8199,10 @@
       <c r="AO88" s="8"/>
     </row>
     <row r="89" spans="1:41">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="20" t="s">
         <v>269</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -8262,10 +8256,10 @@
       <c r="AO89" s="8"/>
     </row>
     <row r="90" spans="1:41">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="20" t="s">
         <v>271</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -8319,10 +8313,10 @@
       <c r="AO90" s="8"/>
     </row>
     <row r="91" spans="1:41">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="20" t="s">
         <v>274</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -8376,10 +8370,10 @@
       <c r="AO91" s="8"/>
     </row>
     <row r="92" spans="1:41">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="20" t="s">
         <v>277</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -8433,10 +8427,10 @@
       <c r="AO92" s="8"/>
     </row>
     <row r="93" spans="1:41">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="20" t="s">
         <v>279</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -8490,10 +8484,10 @@
       <c r="AO93" s="8"/>
     </row>
     <row r="94" spans="1:41">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="20" t="s">
         <v>281</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -8547,10 +8541,10 @@
       <c r="AO94" s="8"/>
     </row>
     <row r="95" spans="1:41">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="20" t="s">
         <v>284</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -8604,10 +8598,10 @@
       <c r="AO95" s="8"/>
     </row>
     <row r="96" spans="1:41">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="20" t="s">
         <v>287</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -8661,10 +8655,10 @@
       <c r="AO96" s="8"/>
     </row>
     <row r="97" spans="1:41">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="20" t="s">
         <v>290</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -8718,10 +8712,10 @@
       <c r="AO97" s="8"/>
     </row>
     <row r="98" spans="1:41">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="20" t="s">
         <v>292</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -8775,10 +8769,10 @@
       <c r="AO98" s="8"/>
     </row>
     <row r="99" spans="1:41">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="20" t="s">
         <v>294</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -8832,10 +8826,10 @@
       <c r="AO99" s="8"/>
     </row>
     <row r="100" spans="1:41">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="20" t="s">
         <v>296</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -8889,10 +8883,10 @@
       <c r="AO100" s="8"/>
     </row>
     <row r="101" spans="1:41">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="20" t="s">
         <v>299</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -8946,10 +8940,10 @@
       <c r="AO101" s="8"/>
     </row>
     <row r="102" spans="1:41">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="20" t="s">
         <v>302</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -9003,10 +8997,10 @@
       <c r="AO102" s="8"/>
     </row>
     <row r="103" spans="1:41">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="20" t="s">
         <v>304</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -9060,10 +9054,10 @@
       <c r="AO103" s="8"/>
     </row>
     <row r="104" spans="1:41">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="20" t="s">
         <v>307</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -9117,10 +9111,10 @@
       <c r="AO104" s="8"/>
     </row>
     <row r="105" spans="1:41">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="20" t="s">
         <v>310</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -9174,10 +9168,10 @@
       <c r="AO105" s="8"/>
     </row>
     <row r="106" spans="1:41">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="20" t="s">
         <v>313</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -9231,10 +9225,10 @@
       <c r="AO106" s="8"/>
     </row>
     <row r="107" spans="1:41">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="20" t="s">
         <v>315</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -9288,10 +9282,10 @@
       <c r="AO107" s="8"/>
     </row>
     <row r="108" spans="1:41">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="20" t="s">
         <v>318</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -9345,10 +9339,10 @@
       <c r="AO108" s="8"/>
     </row>
     <row r="109" spans="1:41">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="20" t="s">
         <v>320</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -9402,10 +9396,10 @@
       <c r="AO109" s="8"/>
     </row>
     <row r="110" spans="1:41">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="20" t="s">
         <v>322</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -9459,10 +9453,10 @@
       <c r="AO110" s="8"/>
     </row>
     <row r="111" spans="1:41">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="20" t="s">
         <v>325</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -9516,10 +9510,10 @@
       <c r="AO111" s="8"/>
     </row>
     <row r="112" spans="1:41">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="20" t="s">
         <v>327</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -9573,10 +9567,10 @@
       <c r="AO112" s="8"/>
     </row>
     <row r="113" spans="1:41">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="20" t="s">
         <v>329</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -9630,10 +9624,10 @@
       <c r="AO113" s="8"/>
     </row>
     <row r="114" spans="1:41">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="20" t="s">
         <v>331</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -9687,10 +9681,10 @@
       <c r="AO114" s="8"/>
     </row>
     <row r="115" spans="1:41">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="20" t="s">
         <v>333</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -9744,10 +9738,10 @@
       <c r="AO115" s="8"/>
     </row>
     <row r="116" spans="1:41">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="20" t="s">
         <v>335</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -9801,10 +9795,10 @@
       <c r="AO116" s="8"/>
     </row>
     <row r="117" spans="1:41">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="20" t="s">
         <v>337</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -9858,10 +9852,10 @@
       <c r="AO117" s="8"/>
     </row>
     <row r="118" spans="1:41">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="20" t="s">
         <v>339</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -9915,10 +9909,10 @@
       <c r="AO118" s="8"/>
     </row>
     <row r="119" spans="1:41">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="20" t="s">
         <v>341</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -9972,10 +9966,10 @@
       <c r="AO119" s="8"/>
     </row>
     <row r="120" spans="1:41">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="20" t="s">
         <v>344</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -10029,10 +10023,10 @@
       <c r="AO120" s="8"/>
     </row>
     <row r="121" spans="1:41">
-      <c r="A121" s="21" t="s">
+      <c r="A121" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="20" t="s">
         <v>347</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -10086,10 +10080,10 @@
       <c r="AO121" s="8"/>
     </row>
     <row r="122" spans="1:41">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="20" t="s">
         <v>349</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -10143,10 +10137,10 @@
       <c r="AO122" s="8"/>
     </row>
     <row r="123" spans="1:41">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="20" t="s">
         <v>352</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -10200,10 +10194,10 @@
       <c r="AO123" s="8"/>
     </row>
     <row r="124" spans="1:41">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="20" t="s">
         <v>355</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -10257,10 +10251,10 @@
       <c r="AO124" s="8"/>
     </row>
     <row r="125" spans="1:41">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="20" t="s">
         <v>357</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -10314,10 +10308,10 @@
       <c r="AO125" s="8"/>
     </row>
     <row r="126" spans="1:41">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="20" t="s">
         <v>360</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -10371,10 +10365,10 @@
       <c r="AO126" s="8"/>
     </row>
     <row r="127" spans="1:41">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="20" t="s">
         <v>362</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -10428,10 +10422,10 @@
       <c r="AO127" s="8"/>
     </row>
     <row r="128" spans="1:41">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="20" t="s">
         <v>364</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -10485,10 +10479,10 @@
       <c r="AO128" s="8"/>
     </row>
     <row r="129" spans="1:41">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="20" t="s">
         <v>366</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -10542,10 +10536,10 @@
       <c r="AO129" s="8"/>
     </row>
     <row r="130" spans="1:41">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="20" t="s">
         <v>369</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -10599,10 +10593,10 @@
       <c r="AO130" s="8"/>
     </row>
     <row r="131" spans="1:41">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="20" t="s">
         <v>372</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -10656,10 +10650,10 @@
       <c r="AO131" s="8"/>
     </row>
     <row r="132" spans="1:41">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="20" t="s">
         <v>374</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -10713,10 +10707,10 @@
       <c r="AO132" s="8"/>
     </row>
     <row r="133" spans="1:41">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="20" t="s">
         <v>377</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -10770,10 +10764,10 @@
       <c r="AO133" s="8"/>
     </row>
     <row r="134" spans="1:41">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="20" t="s">
         <v>379</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -10827,10 +10821,10 @@
       <c r="AO134" s="8"/>
     </row>
     <row r="135" spans="1:41">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="20" t="s">
         <v>382</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -10884,10 +10878,10 @@
       <c r="AO135" s="8"/>
     </row>
     <row r="136" spans="1:41">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="20" t="s">
         <v>384</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -10941,10 +10935,10 @@
       <c r="AO136" s="8"/>
     </row>
     <row r="137" spans="1:41">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="20" t="s">
         <v>386</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -10998,10 +10992,10 @@
       <c r="AO137" s="8"/>
     </row>
     <row r="138" spans="1:41">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="20" t="s">
         <v>389</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -11055,10 +11049,10 @@
       <c r="AO138" s="8"/>
     </row>
     <row r="139" spans="1:41">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="20" t="s">
         <v>391</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -11112,10 +11106,10 @@
       <c r="AO139" s="8"/>
     </row>
     <row r="140" spans="1:41">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="20" t="s">
         <v>393</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -11169,10 +11163,10 @@
       <c r="AO140" s="8"/>
     </row>
     <row r="141" spans="1:41">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="20" t="s">
         <v>395</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -11226,10 +11220,10 @@
       <c r="AO141" s="8"/>
     </row>
     <row r="142" spans="1:41">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="20" t="s">
         <v>397</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -11283,10 +11277,10 @@
       <c r="AO142" s="8"/>
     </row>
     <row r="143" spans="1:41">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="B143" s="22" t="s">
+      <c r="B143" s="20" t="s">
         <v>400</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -11340,10 +11334,10 @@
       <c r="AO143" s="8"/>
     </row>
     <row r="144" spans="1:41">
-      <c r="A144" s="21" t="s">
+      <c r="A144" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="20" t="s">
         <v>403</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -11397,10 +11391,10 @@
       <c r="AO144" s="8"/>
     </row>
     <row r="145" spans="1:41">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="20" t="s">
         <v>405</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -11454,10 +11448,10 @@
       <c r="AO145" s="8"/>
     </row>
     <row r="146" spans="1:41">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="20" t="s">
         <v>407</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -11511,10 +11505,10 @@
       <c r="AO146" s="8"/>
     </row>
     <row r="147" spans="1:41">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="20" t="s">
         <v>410</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -11568,10 +11562,10 @@
       <c r="AO147" s="8"/>
     </row>
     <row r="148" spans="1:41">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="20" t="s">
         <v>412</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -11625,10 +11619,10 @@
       <c r="AO148" s="8"/>
     </row>
     <row r="149" spans="1:41">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="20" t="s">
         <v>415</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -11682,10 +11676,10 @@
       <c r="AO149" s="8"/>
     </row>
     <row r="150" spans="1:41">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="20" t="s">
         <v>417</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -11739,10 +11733,10 @@
       <c r="AO150" s="8"/>
     </row>
     <row r="151" spans="1:41">
-      <c r="A151" s="21" t="s">
+      <c r="A151" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="20" t="s">
         <v>419</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -11796,10 +11790,10 @@
       <c r="AO151" s="8"/>
     </row>
     <row r="152" spans="1:41">
-      <c r="A152" s="21" t="s">
+      <c r="A152" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="20" t="s">
         <v>421</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -11853,10 +11847,10 @@
       <c r="AO152" s="8"/>
     </row>
     <row r="153" spans="1:41">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="20" t="s">
         <v>423</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -11910,10 +11904,10 @@
       <c r="AO153" s="8"/>
     </row>
     <row r="154" spans="1:41">
-      <c r="A154" s="21" t="s">
+      <c r="A154" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="20" t="s">
         <v>426</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -11967,10 +11961,10 @@
       <c r="AO154" s="8"/>
     </row>
     <row r="155" spans="1:41">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="20" t="s">
         <v>429</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -12024,10 +12018,10 @@
       <c r="AO155" s="8"/>
     </row>
     <row r="156" spans="1:41">
-      <c r="A156" s="21" t="s">
+      <c r="A156" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="B156" s="22" t="s">
+      <c r="B156" s="20" t="s">
         <v>432</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -12081,10 +12075,10 @@
       <c r="AO156" s="8"/>
     </row>
     <row r="157" spans="1:41">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="20" t="s">
         <v>435</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -12138,10 +12132,10 @@
       <c r="AO157" s="8"/>
     </row>
     <row r="158" spans="1:41">
-      <c r="A158" s="21" t="s">
+      <c r="A158" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="20" t="s">
         <v>437</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -12195,10 +12189,10 @@
       <c r="AO158" s="8"/>
     </row>
     <row r="159" spans="1:41">
-      <c r="A159" s="21" t="s">
+      <c r="A159" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="20" t="s">
         <v>439</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -12252,10 +12246,10 @@
       <c r="AO159" s="8"/>
     </row>
     <row r="160" spans="1:41">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="B160" s="22" t="s">
+      <c r="B160" s="20" t="s">
         <v>441</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -12309,10 +12303,10 @@
       <c r="AO160" s="8"/>
     </row>
     <row r="161" spans="1:41">
-      <c r="A161" s="21" t="s">
+      <c r="A161" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="B161" s="22" t="s">
+      <c r="B161" s="20" t="s">
         <v>443</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -12366,10 +12360,10 @@
       <c r="AO161" s="8"/>
     </row>
     <row r="162" spans="1:41">
-      <c r="A162" s="21" t="s">
+      <c r="A162" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="20" t="s">
         <v>445</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -12423,10 +12417,10 @@
       <c r="AO162" s="8"/>
     </row>
     <row r="163" spans="1:41">
-      <c r="A163" s="21" t="s">
+      <c r="A163" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="20" t="s">
         <v>447</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -12480,10 +12474,10 @@
       <c r="AO163" s="8"/>
     </row>
     <row r="164" spans="1:41">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="B164" s="22" t="s">
+      <c r="B164" s="20" t="s">
         <v>450</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -12537,10 +12531,10 @@
       <c r="AO164" s="8"/>
     </row>
     <row r="165" spans="1:41">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="20" t="s">
         <v>453</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -12594,10 +12588,10 @@
       <c r="AO165" s="8"/>
     </row>
     <row r="166" spans="1:41">
-      <c r="A166" s="21" t="s">
+      <c r="A166" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="B166" s="22" t="s">
+      <c r="B166" s="20" t="s">
         <v>455</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -12651,10 +12645,10 @@
       <c r="AO166" s="8"/>
     </row>
     <row r="167" spans="1:41">
-      <c r="A167" s="21" t="s">
+      <c r="A167" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="20" t="s">
         <v>458</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -12708,10 +12702,10 @@
       <c r="AO167" s="8"/>
     </row>
     <row r="168" spans="1:41">
-      <c r="A168" s="21" t="s">
+      <c r="A168" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="B168" s="22" t="s">
+      <c r="B168" s="20" t="s">
         <v>460</v>
       </c>
       <c r="C168" s="4" t="s">
@@ -12765,10 +12759,10 @@
       <c r="AO168" s="8"/>
     </row>
     <row r="169" spans="1:41">
-      <c r="A169" s="21" t="s">
+      <c r="A169" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="B169" s="22" t="s">
+      <c r="B169" s="20" t="s">
         <v>463</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -12822,10 +12816,10 @@
       <c r="AO169" s="8"/>
     </row>
     <row r="170" spans="1:41">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="B170" s="22" t="s">
+      <c r="B170" s="20" t="s">
         <v>465</v>
       </c>
       <c r="C170" s="4" t="s">
@@ -12879,10 +12873,10 @@
       <c r="AO170" s="8"/>
     </row>
     <row r="171" spans="1:41">
-      <c r="A171" s="21" t="s">
+      <c r="A171" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="B171" s="22" t="s">
+      <c r="B171" s="20" t="s">
         <v>468</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -12936,10 +12930,10 @@
       <c r="AO171" s="8"/>
     </row>
     <row r="172" spans="1:41">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="B172" s="22" t="s">
+      <c r="B172" s="20" t="s">
         <v>470</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -12993,10 +12987,10 @@
       <c r="AO172" s="8"/>
     </row>
     <row r="173" spans="1:41">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="B173" s="22" t="s">
+      <c r="B173" s="20" t="s">
         <v>472</v>
       </c>
       <c r="C173" s="4" t="s">
@@ -13050,10 +13044,10 @@
       <c r="AO173" s="8"/>
     </row>
     <row r="174" spans="1:41">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="B174" s="22" t="s">
+      <c r="B174" s="20" t="s">
         <v>474</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -13107,10 +13101,10 @@
       <c r="AO174" s="8"/>
     </row>
     <row r="175" spans="1:41">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B175" s="20" t="s">
         <v>477</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -13164,10 +13158,10 @@
       <c r="AO175" s="8"/>
     </row>
     <row r="176" spans="1:41">
-      <c r="A176" s="21" t="s">
+      <c r="A176" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="20" t="s">
         <v>479</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -13221,10 +13215,10 @@
       <c r="AO176" s="8"/>
     </row>
     <row r="177" spans="1:41">
-      <c r="A177" s="21" t="s">
+      <c r="A177" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="B177" s="21" t="s">
+      <c r="B177" s="20" t="s">
         <v>481</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -13278,10 +13272,10 @@
       <c r="AO177" s="8"/>
     </row>
     <row r="178" spans="1:41">
-      <c r="A178" s="21" t="s">
+      <c r="A178" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B178" s="20" t="s">
         <v>483</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -13335,10 +13329,10 @@
       <c r="AO178" s="8"/>
     </row>
     <row r="179" spans="1:41">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="20" t="s">
         <v>486</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -13392,10 +13386,10 @@
       <c r="AO179" s="8"/>
     </row>
     <row r="180" spans="1:41">
-      <c r="A180" s="21" t="s">
+      <c r="A180" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="20" t="s">
         <v>488</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -13449,10 +13443,10 @@
       <c r="AO180" s="8"/>
     </row>
     <row r="181" spans="1:41">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="20" t="s">
         <v>490</v>
       </c>
       <c r="C181" s="4" t="s">
@@ -13506,10 +13500,10 @@
       <c r="AO181" s="8"/>
     </row>
     <row r="182" spans="1:41">
-      <c r="A182" s="21" t="s">
+      <c r="A182" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="20" t="s">
         <v>492</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -13563,10 +13557,10 @@
       <c r="AO182" s="8"/>
     </row>
     <row r="183" spans="1:41">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="20" t="s">
         <v>494</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -13620,10 +13614,10 @@
       <c r="AO183" s="8"/>
     </row>
     <row r="184" spans="1:41">
-      <c r="A184" s="21" t="s">
+      <c r="A184" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="B184" s="22" t="s">
+      <c r="B184" s="20" t="s">
         <v>497</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -13677,10 +13671,10 @@
       <c r="AO184" s="8"/>
     </row>
     <row r="185" spans="1:41">
-      <c r="A185" s="21" t="s">
+      <c r="A185" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="20" t="s">
         <v>499</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -13734,10 +13728,10 @@
       <c r="AO185" s="8"/>
     </row>
     <row r="186" spans="1:41">
-      <c r="A186" s="21" t="s">
+      <c r="A186" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="20" t="s">
         <v>501</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -13791,10 +13785,10 @@
       <c r="AO186" s="8"/>
     </row>
     <row r="187" spans="1:41">
-      <c r="A187" s="21" t="s">
+      <c r="A187" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="20" t="s">
         <v>503</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -13848,10 +13842,10 @@
       <c r="AO187" s="8"/>
     </row>
     <row r="188" spans="1:41">
-      <c r="A188" s="21" t="s">
+      <c r="A188" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="B188" s="22" t="s">
+      <c r="B188" s="20" t="s">
         <v>505</v>
       </c>
       <c r="C188" s="4" t="s">
@@ -13905,10 +13899,10 @@
       <c r="AO188" s="8"/>
     </row>
     <row r="189" spans="1:41">
-      <c r="A189" s="21" t="s">
+      <c r="A189" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="20" t="s">
         <v>507</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -13962,10 +13956,10 @@
       <c r="AO189" s="8"/>
     </row>
     <row r="190" spans="1:41">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="B190" s="21" t="s">
+      <c r="B190" s="20" t="s">
         <v>509</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -14019,10 +14013,10 @@
       <c r="AO190" s="8"/>
     </row>
     <row r="191" spans="1:41">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="B191" s="22" t="s">
+      <c r="B191" s="20" t="s">
         <v>511</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -14076,10 +14070,10 @@
       <c r="AO191" s="8"/>
     </row>
     <row r="192" spans="1:41">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="B192" s="22" t="s">
+      <c r="B192" s="20" t="s">
         <v>513</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -14133,10 +14127,10 @@
       <c r="AO192" s="8"/>
     </row>
     <row r="193" spans="1:41">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="B193" s="21" t="s">
+      <c r="B193" s="20" t="s">
         <v>515</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -15258,12 +15252,12 @@
   <sheetPr/>
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
